--- a/non_supervised_analysis/notebooks/dataset_1/data/citi_bike_values_encoded.xlsx
+++ b/non_supervised_analysis/notebooks/dataset_1/data/citi_bike_values_encoded.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lourefra/Documents/Mercedes-benz.io/TRAINING/post graduation course IST - Data science/projeto curso/ist_dash_2024_rec/non_supervised_analysis/notebooks/dataset_1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981722E7-F12D-8A42-88DA-33514ADBF575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4D37AA-45C2-AD43-B94B-9D896CCFE697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bike_type" sheetId="1" r:id="rId1"/>
     <sheet name="user_type" sheetId="2" r:id="rId2"/>
+    <sheet name="wmo_weather_desc" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>bike_type</t>
   </si>
@@ -45,6 +46,96 @@
   </si>
   <si>
     <t>member</t>
+  </si>
+  <si>
+    <t>wmo_weather_desc</t>
+  </si>
+  <si>
+    <t>wmo_weather_desc_enc</t>
+  </si>
+  <si>
+    <t>Clear sky</t>
+  </si>
+  <si>
+    <t>Drizzle: Dense</t>
+  </si>
+  <si>
+    <t>Drizzle: Light</t>
+  </si>
+  <si>
+    <t>Drizzle: Moderate</t>
+  </si>
+  <si>
+    <t>Mainly clear</t>
+  </si>
+  <si>
+    <t>Overcast</t>
+  </si>
+  <si>
+    <t>Partly cloudy</t>
+  </si>
+  <si>
+    <t>Rain: Moderate</t>
+  </si>
+  <si>
+    <t>Rain: Slight</t>
+  </si>
+  <si>
+    <t>Fog</t>
+  </si>
+  <si>
+    <t>Depositing rime fog</t>
+  </si>
+  <si>
+    <t>Freezing drizzle: Light</t>
+  </si>
+  <si>
+    <t>Freezing drizzle: Dense</t>
+  </si>
+  <si>
+    <t>Rain: Heavy</t>
+  </si>
+  <si>
+    <t>Freezing rain: Light</t>
+  </si>
+  <si>
+    <t>Freezing rain: Heavy</t>
+  </si>
+  <si>
+    <t>Snowfall: Slight</t>
+  </si>
+  <si>
+    <t>Snowfall: Moderate</t>
+  </si>
+  <si>
+    <t>Snowfall: Heavy</t>
+  </si>
+  <si>
+    <t>Snow grains</t>
+  </si>
+  <si>
+    <t>Rain showers: Slight</t>
+  </si>
+  <si>
+    <t>Rain showers: Moderate</t>
+  </si>
+  <si>
+    <t>Rain showers: Violent</t>
+  </si>
+  <si>
+    <t>Snow showers: Slight</t>
+  </si>
+  <si>
+    <t>Snow showers: Heavy</t>
+  </si>
+  <si>
+    <t>Thunderstorm: Slight or moderate</t>
+  </si>
+  <si>
+    <t>Thunderstorm with slight hail</t>
+  </si>
+  <si>
+    <t>Thunderstorm with heavy ha</t>
   </si>
 </sst>
 </file>
@@ -410,14 +501,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -453,26 +543,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -480,10 +610,218 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/non_supervised_analysis/notebooks/dataset_1/data/citi_bike_values_encoded.xlsx
+++ b/non_supervised_analysis/notebooks/dataset_1/data/citi_bike_values_encoded.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lourefra/Documents/Mercedes-benz.io/TRAINING/post graduation course IST - Data science/projeto curso/ist_dash_2024_rec/non_supervised_analysis/notebooks/dataset_1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4D37AA-45C2-AD43-B94B-9D896CCFE697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D40367-9801-444B-840F-1092304AD76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bike_type" sheetId="1" r:id="rId1"/>
     <sheet name="user_type" sheetId="2" r:id="rId2"/>
     <sheet name="wmo_weather_desc" sheetId="3" r:id="rId3"/>
+    <sheet name="start_borough" sheetId="4" r:id="rId4"/>
+    <sheet name="end_borough" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>bike_type</t>
   </si>
@@ -136,6 +138,30 @@
   </si>
   <si>
     <t>Thunderstorm with heavy ha</t>
+  </si>
+  <si>
+    <t>start_borough_desc</t>
+  </si>
+  <si>
+    <t>Manhattan</t>
+  </si>
+  <si>
+    <t>Brooklyn</t>
+  </si>
+  <si>
+    <t>Queens</t>
+  </si>
+  <si>
+    <t>Bronx</t>
+  </si>
+  <si>
+    <t>Staten Island</t>
+  </si>
+  <si>
+    <t>end_borough_desc</t>
+  </si>
+  <si>
+    <t>Jersey City</t>
   </si>
 </sst>
 </file>
@@ -501,7 +527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -583,7 +609,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -827,4 +853,150 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994AEDAB-444C-424E-B48A-C6B3CEB3B391}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD4CBF4-C6D6-A24F-91B9-BE59B71B2844}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>